--- a/biology/Médecine/Syndrome_de_Demons-Meigs/Syndrome_de_Demons-Meigs.xlsx
+++ b/biology/Médecine/Syndrome_de_Demons-Meigs/Syndrome_de_Demons-Meigs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Demons-Meigs est une tumeur bénigne de l'ovaire avec des épanchements liquides dans plusieurs cavités. On retrouve une ascite[1] (liquide dans l'abdomen), une pleurésie exsudative (liquide dans la cavité pleurale), et une tumeur bénigne de l'ovaire (fibrome ou fibro-thécome initialement) dont l'évolution doit se faire vers la guérison complète et définitive après traitement curatif par exérèse chirurgicale de la lésion ovarienne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Demons-Meigs est une tumeur bénigne de l'ovaire avec des épanchements liquides dans plusieurs cavités. On retrouve une ascite (liquide dans l'abdomen), une pleurésie exsudative (liquide dans la cavité pleurale), et une tumeur bénigne de l'ovaire (fibrome ou fibro-thécome initialement) dont l'évolution doit se faire vers la guérison complète et définitive après traitement curatif par exérèse chirurgicale de la lésion ovarienne.
 Dernièrement, cette définition a été étendue à  l’ensemble des tumeurs ovariennes, qu'elles soient bénignes ou malignes, associées à un épanchement péritonéal et/ou pleural non néoplasique. On préfère alors parler de pseudo-syndrome de Demons-Meigs.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome a été décrit à la fin du XIXe siècle par Demons[2] et redécrit par le gynécologue-obstétricien américain Joe Vincent Meigs à la fin des années 1930[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome a été décrit à la fin du XIXe siècle par Demons et redécrit par le gynécologue-obstétricien américain Joe Vincent Meigs à la fin des années 1930.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Demons-Meigs est à évoquer systématiquement devant toute femme présentant un épanchement pleural unilatéral de type transsudat pour lequel il n'existe pas de notion d'insuffisance cardiaque, de syndrome néphrotique ni d'insuffisance hépato-cellulaire.
 La patiente peut être asymptomatique malgré l’existence des signes cliniques.
@@ -579,12 +595,14 @@
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic de la tumeur ovarienne repose sur l'examen clinique gynécologique (toucher vaginal) et peut être confirmé par échographie pelvienne en cas de kyste de l'ovaire simple (critères échographiques du consensus).
 L'examen physique pulmonaire met en évidence l'épanchement pleural avec une diminution de murmure vésiculaire et une diminution des vibrations vocales.
 La radiographie du thorax met en évidence l'hydrothorax tandis que l'échographie abdominale montre une ascite. Ces épanchements doivent être ponctionnés en cas de retentissements fonctionnels importants mais la récidive est quasi systématique en l'absence de traitement étiologique.
-Le dosage sérique[4],[5] du marqueur tumoral est non sensible ni spécifique avec un CA 125 fréquemment élevé d'où un facteur confondant.
+Le dosage sérique, du marqueur tumoral est non sensible ni spécifique avec un CA 125 fréquemment élevé d'où un facteur confondant.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement curatif est chirurgical, par exérèse de la tumeur ovarienne ce qui entraîne une guérison rapide des symptômes sans récidive.
 En cas de tumeur maligne, le traitement est celui du type anatomo-pathologique du type du cancer décidé en réunion de concertation pluridisciplinaire et adapté au patient selon un Plan Personnalisé de Soins.
